--- a/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,65</t>
+          <t>23,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,12</t>
+          <t>19,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,45</t>
+          <t>21,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,93</t>
+          <t>-5,2; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,6</t>
+          <t>0,5; 12,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,93; 33,54</t>
+          <t>15,71; 32,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,56</t>
+          <t>-7,45; 1,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,8</t>
+          <t>4,62; 16,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 32,19</t>
+          <t>11,7; 27,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,0</t>
+          <t>-5,04; 1,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,98</t>
+          <t>4,14; 12,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 30,62</t>
+          <t>16,22; 28,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>217,91%</t>
+          <t>120,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>359,53%</t>
+          <t>447,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-48,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>147,74%</t>
+          <t>189,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>287,74%</t>
+          <t>346,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>181,0%</t>
+          <t>155,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>322,55%</t>
+          <t>398,22%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 68,67</t>
+          <t>-70,41; 153,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>112,25; 380,04</t>
+          <t>-1,9; 398,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>213,22; 596,98</t>
+          <t>184,41; 1191,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,3; 40,71</t>
+          <t>-86,97; 70,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>67,17; 267,88</t>
+          <t>46,83; 537,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>161,67; 489,82</t>
+          <t>119,56; 915,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 29,15</t>
+          <t>-66,92; 38,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>114,36; 275,75</t>
+          <t>48,64; 339,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>230,85; 475,59</t>
+          <t>199,38; 732,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,78</t>
+          <t>27,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>25,12</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,57</t>
+          <t>26,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,23</t>
+          <t>-4,16; 3,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 12,21</t>
+          <t>11,41; 22,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,71; 32,63</t>
+          <t>20,93; 33,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 1,35</t>
+          <t>-5,98; 2,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,59</t>
+          <t>7,79; 17,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 27,43</t>
+          <t>19,23; 32,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,2</t>
+          <t>-3,56; 2,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,78</t>
+          <t>11,09; 18,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,25</t>
+          <t>22,32; 30,62</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,66%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>120,97%</t>
+          <t>217,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>447,39%</t>
+          <t>359,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-48,54%</t>
+          <t>-16,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>189,11%</t>
+          <t>147,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>346,25%</t>
+          <t>287,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>-8,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>155,25%</t>
+          <t>181,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>398,22%</t>
+          <t>322,55%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,41; 153,31</t>
+          <t>-40,39; 68,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 398,55</t>
+          <t>112,25; 380,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184,41; 1191,86</t>
+          <t>213,22; 596,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-86,97; 70,18</t>
+          <t>-54,3; 40,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,83; 537,19</t>
+          <t>67,17; 267,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>119,56; 915,06</t>
+          <t>161,67; 489,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 38,98</t>
+          <t>-38,38; 29,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>48,64; 339,07</t>
+          <t>114,36; 275,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199,38; 732,42</t>
+          <t>230,85; 475,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,6</t>
+          <t>36,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>19,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>36,43</t>
+          <t>32,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,86</t>
+          <t>34,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,18; 50,47</t>
+          <t>10,98; 75,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 20,02</t>
+          <t>0,0; 79,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,52; 55,53</t>
+          <t>7,26; 67,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 10,51</t>
+          <t>0,0; 66,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 17,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,69; 46,6</t>
+          <t>15,32; 59,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>450,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1352,07%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>278,29%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1808,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>192,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1559,68%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>336,54; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,78</t>
+          <t>33,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,13</t>
+          <t>18,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,57</t>
+          <t>26,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,23</t>
+          <t>-3,87; 5,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 12,21</t>
+          <t>1,27; 13,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,71; 32,63</t>
+          <t>23,65; 44,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 1,35</t>
+          <t>-5,2; 4,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,59</t>
+          <t>1,93; 15,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 27,43</t>
+          <t>10,73; 28,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,2</t>
+          <t>-2,87; 3,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 12,78</t>
+          <t>3,57; 12,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 28,25</t>
+          <t>20,0; 34,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,66%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>120,97%</t>
+          <t>233,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>447,39%</t>
+          <t>1092,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-48,54%</t>
+          <t>-3,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>189,11%</t>
+          <t>239,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>346,25%</t>
+          <t>537,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>155,25%</t>
+          <t>234,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>398,22%</t>
+          <t>807,77%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,41; 153,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 398,55</t>
+          <t>1,8; 1442,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>184,41; 1191,86</t>
+          <t>280,87; 4388,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-86,97; 70,18</t>
+          <t>-88,26; 320,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,83; 537,19</t>
+          <t>14,8; 1004,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>119,56; 915,06</t>
+          <t>150,15; 1897,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 38,98</t>
+          <t>-62,14; 221,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 339,07</t>
+          <t>60,11; 659,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>199,38; 732,42</t>
+          <t>390,77; 1816,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,76</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,65</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,12</t>
+          <t>24,95</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>10,27</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>26,45</t>
+          <t>19,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,93</t>
+          <t>-7,84; 2,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,6</t>
+          <t>1,99; 16,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,93; 33,54</t>
+          <t>8,48; 23,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 2,56</t>
+          <t>-9,56; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,79; 17,8</t>
+          <t>4,09; 17,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,23; 32,19</t>
+          <t>16,25; 33,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,0</t>
+          <t>-6,8; 0,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,98</t>
+          <t>5,43; 15,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,32; 30,62</t>
+          <t>14,45; 25,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>-29,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>217,91%</t>
+          <t>119,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>359,53%</t>
+          <t>191,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-51,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>147,74%</t>
+          <t>147,14%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>287,74%</t>
+          <t>341,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,11%</t>
+          <t>-39,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>181,0%</t>
+          <t>131,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>322,55%</t>
+          <t>255,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 68,67</t>
+          <t>-69,05; 56,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>112,25; 380,04</t>
+          <t>16,46; 327,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>213,22; 596,98</t>
+          <t>67,8; 456,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,3; 40,71</t>
+          <t>-82,99; 33,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>67,17; 267,88</t>
+          <t>26,53; 414,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>161,67; 489,82</t>
+          <t>142,94; 797,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 29,15</t>
+          <t>-68,0; 14,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>114,36; 275,75</t>
+          <t>52,45; 241,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>230,85; 475,59</t>
+          <t>138,62; 448,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>19,53</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,04</t>
+          <t>31,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,63</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>24,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,26</t>
+          <t>16,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,67</t>
+          <t>28,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,72</t>
+          <t>-3,79; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 16,75</t>
+          <t>12,5; 27,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,51; 32,05</t>
+          <t>23,97; 39,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,55</t>
+          <t>-6,12; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,62</t>
+          <t>6,77; 20,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 28,76</t>
+          <t>17,46; 31,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 1,21</t>
+          <t>-3,67; 3,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 14,93</t>
+          <t>11,68; 21,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,51; 29,06</t>
+          <t>23,16; 33,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>192,91%</t>
+          <t>262,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>405,1%</t>
+          <t>426,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>-9,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>158,58%</t>
+          <t>144,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>329,01%</t>
+          <t>257,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>175,16%</t>
+          <t>196,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>366,79%</t>
+          <t>335,25%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,01; 51,73</t>
+          <t>-38,0; 125,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>109,15; 321,82</t>
+          <t>120,27; 540,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>262,56; 632,74</t>
+          <t>233,82; 753,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 28,52</t>
+          <t>-51,97; 71,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>81,22; 271,1</t>
+          <t>51,03; 298,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>215,97; 527,5</t>
+          <t>134,13; 450,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 20,54</t>
+          <t>-34,54; 57,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>112,14; 258,28</t>
+          <t>111,78; 311,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>271,47; 499,07</t>
+          <t>212,45; 502,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12,87</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27,04</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>12,26</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>25,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 2,56</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 17,25</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>22,59; 31,84</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 1,66</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 15,66</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19,64; 29,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 1,11</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 15,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 29,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,97%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>192,91%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>405,1%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>158,58%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>329,01%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-13,45%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>175,16%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>366,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-39,46; 51,63</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>102,17; 324,17</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>267,23; 624,92</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-50,43; 25,75</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>80,59; 280,23</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>213,59; 508,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-35,64; 17,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>114,03; 265,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>269,18; 495,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 75,63</t>
+          <t>11,04; 74,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 79,2</t>
+          <t>0,0; 80,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 67,76</t>
+          <t>8,19; 64,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,64</t>
+          <t>0,0; 66,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 59,34</t>
+          <t>15,29; 57,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,91</t>
+          <t>-4,22; 5,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,69</t>
+          <t>1,5; 13,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,65; 44,18</t>
+          <t>24,92; 43,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 4,32</t>
+          <t>-5,15; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 15,45</t>
+          <t>2,26; 15,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 28,44</t>
+          <t>9,93; 27,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,85</t>
+          <t>-2,71; 3,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,88</t>
+          <t>3,32; 12,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 34,45</t>
+          <t>19,26; 33,64</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 1442,01</t>
+          <t>-6,26; 1390,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>280,87; 4388,54</t>
+          <t>366,76; 4782,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-88,26; 320,81</t>
+          <t>-89,96; 384,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 1004,71</t>
+          <t>2,79; 1013,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>150,15; 1897,04</t>
+          <t>136,25; 1968,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 221,81</t>
+          <t>-60,19; 226,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,11; 659,69</t>
+          <t>48,87; 685,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>390,77; 1816,9</t>
+          <t>368,07; 1982,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 2,91</t>
+          <t>-8,47; 2,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 16,29</t>
+          <t>2,96; 16,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,48; 23,93</t>
+          <t>8,09; 23,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 0,86</t>
+          <t>-8,91; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 17,66</t>
+          <t>4,18; 17,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,25; 33,69</t>
+          <t>16,61; 34,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 0,64</t>
+          <t>-6,81; 0,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 15,06</t>
+          <t>5,56; 15,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 25,2</t>
+          <t>14,55; 25,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,05; 56,75</t>
+          <t>-76,05; 52,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 327,34</t>
+          <t>23,1; 344,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>67,8; 456,79</t>
+          <t>63,35; 441,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,99; 33,54</t>
+          <t>-85,37; 29,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,53; 414,96</t>
+          <t>24,5; 400,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>142,94; 797,47</t>
+          <t>145,15; 740,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,0; 14,93</t>
+          <t>-68,21; 12,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,45; 241,24</t>
+          <t>54,0; 260,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138,62; 448,0</t>
+          <t>140,31; 448,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,43</t>
+          <t>-3,99; 5,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,5; 27,25</t>
+          <t>12,42; 26,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,97; 39,44</t>
+          <t>24,32; 39,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 4,51</t>
+          <t>-6,47; 4,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 20,58</t>
+          <t>7,45; 20,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,46; 31,54</t>
+          <t>17,68; 31,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,83</t>
+          <t>-3,36; 4,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,68; 21,49</t>
+          <t>12,01; 21,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,16; 33,51</t>
+          <t>23,27; 33,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,0; 125,63</t>
+          <t>-42,81; 107,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>120,27; 540,42</t>
+          <t>118,98; 486,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>233,82; 753,48</t>
+          <t>235,19; 781,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,97; 71,08</t>
+          <t>-54,6; 63,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>51,03; 298,19</t>
+          <t>55,78; 302,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>134,13; 450,51</t>
+          <t>146,03; 472,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 57,12</t>
+          <t>-33,98; 61,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>111,78; 311,64</t>
+          <t>116,1; 318,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>212,45; 502,52</t>
+          <t>216,41; 506,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,56</t>
+          <t>-3,62; 2,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,25</t>
+          <t>8,93; 17,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,59; 31,84</t>
+          <t>22,49; 31,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,66</t>
+          <t>-4,43; 1,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,66</t>
+          <t>7,53; 15,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,64; 29,19</t>
+          <t>19,59; 28,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,11</t>
+          <t>-3,27; 1,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,11</t>
+          <t>9,34; 15,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,39; 29,08</t>
+          <t>22,27; 29,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 51,63</t>
+          <t>-44,17; 50,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>102,17; 324,17</t>
+          <t>103,52; 342,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>267,23; 624,92</t>
+          <t>260,05; 617,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 25,75</t>
+          <t>-49,03; 27,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>80,59; 280,23</t>
+          <t>77,93; 275,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>213,59; 508,56</t>
+          <t>225,84; 525,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 17,87</t>
+          <t>-38,36; 20,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>114,03; 265,64</t>
+          <t>108,1; 251,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>269,18; 495,97</t>
+          <t>272,95; 492,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP19C02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,24 +632,24 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>19,02</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31,87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>36,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>19,02</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,77</t>
+          <t>36,39</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,65</t>
+          <t>34,03</t>
         </is>
       </c>
     </row>
@@ -685,24 +685,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 76,68</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7,83; 63,86</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,04; 74,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 80,15</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 64,49</t>
+          <t>11,46; 74,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,77</t>
+          <t>0,0; 66,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,29; 57,59</t>
+          <t>15,83; 57,8</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17,22</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,65</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>7,23</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>33,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,75</t>
+          <t>32,87</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,64</t>
+          <t>25,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 5,45</t>
+          <t>-4,67; 4,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 13,5</t>
+          <t>2,22; 16,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,92; 43,74</t>
+          <t>8,58; 25,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,57</t>
+          <t>-3,66; 5,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 15,48</t>
+          <t>1,44; 14,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 27,99</t>
+          <t>23,31; 43,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,82</t>
+          <t>-3,07; 3,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 12,8</t>
+          <t>3,65; 12,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,26; 33,64</t>
+          <t>19,15; 33,1</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>239,78%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>494,01%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>20,98%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>233,2%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1092,37%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>239,78%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>537,94%</t>
+          <t>1059,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>807,77%</t>
+          <t>776,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,04; 302,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1390,6</t>
+          <t>2,91; 1095,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>366,76; 4782,55</t>
+          <t>99,66; 1619,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-89,96; 384,81</t>
+          <t>-80,67; 640,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 1013,65</t>
+          <t>2,74; 1157,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>136,25; 1968,62</t>
+          <t>342,82; 4942,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 226,47</t>
+          <t>-64,04; 195,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,87; 685,19</t>
+          <t>57,81; 687,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>368,07; 1982,54</t>
+          <t>353,28; 1840,27</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-3,74</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,9</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-2,42</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>9,82</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>15,81</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,74</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,76</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,95</t>
+          <t>13,56</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>17,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 2,55</t>
+          <t>-9,31; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,73</t>
+          <t>3,82; 17,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,09; 23,07</t>
+          <t>15,0; 31,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 0,86</t>
+          <t>-7,91; 3,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 17,63</t>
+          <t>2,72; 16,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 34,27</t>
+          <t>6,04; 21,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,57</t>
+          <t>-6,77; 0,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,56; 15,1</t>
+          <t>5,19; 15,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,55; 25,54</t>
+          <t>12,34; 23,11</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-51,1%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>147,14%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>313,12%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-29,44%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>119,19%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>191,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-51,1%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>147,14%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>341,09%</t>
+          <t>164,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>255,21%</t>
+          <t>225,79%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-76,05; 52,14</t>
+          <t>-83,61; 41,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,1; 344,27</t>
+          <t>30,85; 394,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,35; 441,05</t>
+          <t>132,66; 696,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,37; 29,78</t>
+          <t>-69,32; 86,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,5; 400,55</t>
+          <t>18,12; 323,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>145,15; 740,16</t>
+          <t>48,74; 420,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 12,52</t>
+          <t>-69,34; 18,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>54,0; 260,28</t>
+          <t>47,75; 266,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>140,31; 448,99</t>
+          <t>119,27; 408,84</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13,78</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22,83</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,11</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>19,53</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>31,78</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>13,78</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,49</t>
+          <t>29,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>26,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 5,69</t>
+          <t>-6,18; 4,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 26,43</t>
+          <t>7,04; 20,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,32; 39,68</t>
+          <t>15,8; 29,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,28</t>
+          <t>-3,47; 6,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,45; 20,92</t>
+          <t>12,35; 26,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,63</t>
+          <t>20,98; 36,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,09</t>
+          <t>-3,7; 3,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,79</t>
+          <t>11,7; 21,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23,27; 33,52</t>
+          <t>20,62; 31,33</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-9,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>144,96%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>240,13%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>14,87%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>262,16%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>426,56%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-9,83%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>144,96%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>257,53%</t>
+          <t>391,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>335,25%</t>
+          <t>310,57%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 107,81</t>
+          <t>-52,26; 69,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>118,98; 486,28</t>
+          <t>57,16; 320,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>235,19; 781,34</t>
+          <t>120,6; 433,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 63,68</t>
+          <t>-37,41; 117,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>55,78; 302,04</t>
+          <t>123,66; 539,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>146,03; 472,25</t>
+          <t>211,69; 712,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 61,63</t>
+          <t>-35,08; 58,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>116,1; 318,19</t>
+          <t>109,56; 319,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>216,41; 506,94</t>
+          <t>203,08; 468,29</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11,63</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22,37</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,33</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>12,87</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>27,04</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>11,63</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>24,13</t>
+          <t>24,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,67</t>
+          <t>23,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 2,55</t>
+          <t>-4,53; 1,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,93; 17,21</t>
+          <t>7,55; 15,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,49; 31,92</t>
+          <t>17,6; 26,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,51</t>
+          <t>-3,09; 2,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,75</t>
+          <t>8,86; 16,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,59</t>
+          <t>20,39; 29,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,09</t>
+          <t>-3,07; 1,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,34; 15,42</t>
+          <t>9,25; 14,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,27; 29,05</t>
+          <t>20,52; 27,09</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-21,42%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>158,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>304,99%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-4,97%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>192,91%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>405,1%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-21,42%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>158,58%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>329,01%</t>
+          <t>371,71%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>366,79%</t>
+          <t>338,43%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 50,66</t>
+          <t>-50,04; 28,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>103,52; 342,51</t>
+          <t>81,22; 271,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>260,05; 617,89</t>
+          <t>195,61; 482,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 27,98</t>
+          <t>-39,01; 51,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,93; 275,53</t>
+          <t>109,15; 321,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>225,84; 525,18</t>
+          <t>238,63; 593,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 20,21</t>
+          <t>-37,85; 20,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>108,1; 251,83</t>
+          <t>112,14; 258,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>272,95; 492,77</t>
+          <t>250,88; 465,36</t>
         </is>
       </c>
     </row>
